--- a/SummerTime/data/excel/item_info.xlsx
+++ b/SummerTime/data/excel/item_info.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,67 +48,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>res://images/icon/item/Item_00003.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/item/Item_00004.png</t>
+  </si>
+  <si>
+    <t>res://images/icon/item/Item_00005.png</t>
+  </si>
+  <si>
+    <t>道具1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具3</t>
+  </si>
+  <si>
+    <t>道具4</t>
+  </si>
+  <si>
+    <t>can_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>res://images/icon/item/Item_00001.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://images/icon/item/Item_00003.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/item/Item_00004.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/item/Item_00005.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/item/Item_00006.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/item/Item_00007.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/item/Item_00008.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/item/Item_00009.png</t>
-  </si>
-  <si>
-    <t>res://images/icon/item/Item_00010.png</t>
-  </si>
-  <si>
-    <t>道具1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具3</t>
-  </si>
-  <si>
-    <t>道具4</t>
-  </si>
-  <si>
-    <t>道具5</t>
-  </si>
-  <si>
-    <t>道具6</t>
-  </si>
-  <si>
-    <t>道具7</t>
-  </si>
-  <si>
-    <t>道具8</t>
-  </si>
-  <si>
-    <t>道具9</t>
-  </si>
-  <si>
-    <t>道具10</t>
-  </si>
-  <si>
-    <t>String</t>
+    <t>res://images/icon/item/Item_00001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://images/icon/item/Item_00001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a class schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://images/icon/item/Item_00001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a desk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://images/icon/item/Item_00002.png</t>
+  </si>
+  <si>
+    <t>This is a door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a saying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a ranking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,8 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -447,7 +490,7 @@
     <col min="3" max="3" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,24 +500,42 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -482,95 +543,183 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="201" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
